--- a/template RGPD registos.xlsx
+++ b/template RGPD registos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ECDAAE2-D7A7-438E-8BBA-4563F3571836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="114_{4FC6CB05-B107-4692-B77D-C0EBC8DE0B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0EC878DE-EF40-4BD3-B227-AC630B6F9764}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="histórico de alterações" sheetId="9" r:id="rId1"/>
@@ -15,19 +15,30 @@
     <sheet name="4-medidas de segurança" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2-tratamentos'!$A$1:$AI$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2-tratamentos'!$A$1:$M$105</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3-destinatários e transf intern'!$A$1:$F$104</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'4-medidas de segurança'!$A$1:$E$106</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2-tratamentos'!$A:$B,'2-tratamentos'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'3-destinatários e transf intern'!$A:$A,'3-destinatários e transf intern'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'4-medidas de segurança'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="418">
   <si>
     <t>Nome</t>
   </si>
@@ -38,12 +49,6 @@
     <t>Fundamento de Licitude</t>
   </si>
   <si>
-    <t>Art.º 9.º, n.º 1</t>
-  </si>
-  <si>
-    <t>Art.º 10.º</t>
-  </si>
-  <si>
     <t>e-mail</t>
   </si>
   <si>
@@ -71,18 +76,6 @@
     <t>Qual a finalidade</t>
   </si>
   <si>
-    <t>vida profissional</t>
-  </si>
-  <si>
-    <t>outras categorias de dados pessoais não sensíveis</t>
-  </si>
-  <si>
-    <t>sim/não</t>
-  </si>
-  <si>
-    <t>se sim, quais</t>
-  </si>
-  <si>
     <t># tratamento</t>
   </si>
   <si>
@@ -764,9 +757,6 @@
     <t>NIPC</t>
   </si>
   <si>
-    <t>Categorias dos titulares de dados</t>
-  </si>
-  <si>
     <t>M000e</t>
   </si>
   <si>
@@ -1091,21 +1081,6 @@
     <t>C100</t>
   </si>
   <si>
-    <t>Recursos Humanos</t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
-    <t>Potenciais clientes</t>
-  </si>
-  <si>
-    <t>Fornecedores</t>
-  </si>
-  <si>
-    <t>Outros</t>
-  </si>
-  <si>
     <t>ex: funcionário teste</t>
   </si>
   <si>
@@ -1115,9 +1090,6 @@
     <t>ex: NIF empresa 1</t>
   </si>
   <si>
-    <t>perfis</t>
-  </si>
-  <si>
     <t>Quem registou as alterações</t>
   </si>
   <si>
@@ -1130,33 +1102,6 @@
     <t>País</t>
   </si>
   <si>
-    <t>dados de identificação</t>
-  </si>
-  <si>
-    <t>dados de contacto</t>
-  </si>
-  <si>
-    <t>dados de faturação</t>
-  </si>
-  <si>
-    <t>vida familiar</t>
-  </si>
-  <si>
-    <t>informações de ordem financeira e patrimonial</t>
-  </si>
-  <si>
-    <t>dados de tráfego e de localização</t>
-  </si>
-  <si>
-    <t>dados de navegação na internet</t>
-  </si>
-  <si>
-    <t>Dados</t>
-  </si>
-  <si>
-    <t>prazo de conservação</t>
-  </si>
-  <si>
     <t>ex: 2, 3 e 5</t>
   </si>
   <si>
@@ -1209,6 +1154,144 @@
   </si>
   <si>
     <t>Dados do Subcontratante (se existir)</t>
+  </si>
+  <si>
+    <t>Dados de Faturação</t>
+  </si>
+  <si>
+    <t>Dados de Contacto</t>
+  </si>
+  <si>
+    <t>Dados de Identificação</t>
+  </si>
+  <si>
+    <t>Vida Familiar</t>
+  </si>
+  <si>
+    <t>Vida Profissional</t>
+  </si>
+  <si>
+    <t>Informações de Ordem Financeira e Patrimonial</t>
+  </si>
+  <si>
+    <t>Dados de Tráfego e de Localização</t>
+  </si>
+  <si>
+    <t>Dados de Navegação na Internet</t>
+  </si>
+  <si>
+    <t>Outras Categorias de Dados Pessoais não Sensíveis</t>
+  </si>
+  <si>
+    <t>Perfis</t>
+  </si>
+  <si>
+    <t>Número de telefone</t>
+  </si>
+  <si>
+    <t>Número de contribuinte</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Dados para IRS</t>
+  </si>
+  <si>
+    <t>Meio de informação sobre actualizações acerca do serviço prestado</t>
+  </si>
+  <si>
+    <t>Estado civil, número de filhos</t>
+  </si>
+  <si>
+    <t>Situação profissional</t>
+  </si>
+  <si>
+    <t>Prestar um melhor serviço conforme informação familiar (pagamento por escalão)</t>
+  </si>
+  <si>
+    <t>Prestar um melhor serviço conforme informação profissional (pagamento por escalão)</t>
+  </si>
+  <si>
+    <t>Preenchimento da Ficha de cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consentimento; Contrato; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consentimento; Interesse do Titular </t>
+  </si>
+  <si>
+    <t>Consentimento; Interesse do Titular; Interesse Público</t>
+  </si>
+  <si>
+    <t>Consentimento; Interesse do Responsável; Interesse do Titular</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dados do Encarregado de Proteção de Dados </t>
+  </si>
+  <si>
+    <t>Residência Fiscal</t>
+  </si>
+  <si>
+    <t>Localidade para correspondência e intendimento da localização do cliente</t>
+  </si>
+  <si>
+    <t>Empresa de Transporte</t>
+  </si>
+  <si>
+    <t>223 483 707</t>
+  </si>
+  <si>
+    <t>Rua dos Artistas, nº 19A, Paços de Ferreira</t>
+  </si>
+  <si>
+    <t>Paços de Ferreira</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>deumpontoaooutro@hotmail.com</t>
+  </si>
+  <si>
+    <t>António Jorge Almeida</t>
+  </si>
+  <si>
+    <t>Rua do Sol, nº100, Braga</t>
+  </si>
+  <si>
+    <t>2910-320, Braga</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>antoniojalmeida@hotmail.com</t>
+  </si>
+  <si>
+    <t>OPT (Optimização e Planeamento de Transportes)</t>
+  </si>
+  <si>
+    <t>121 990 543</t>
+  </si>
+  <si>
+    <t>Travessa dos Afogados, nº21, Famalicão</t>
+  </si>
+  <si>
+    <t>5240-217, Paços de Ferreira</t>
+  </si>
+  <si>
+    <t>3188-433, Famalicão</t>
+  </si>
+  <si>
+    <t>Famalicão</t>
+  </si>
+  <si>
+    <t>opt@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1332,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1395,10 +1479,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1474,24 +1559,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1501,9 +1578,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,9 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1528,13 +1599,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1546,12 +1623,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1561,8 +1632,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1579,7 +1666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1904,7 +1991,9 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1915,38 +2004,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>364</v>
+      <c r="A1" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="56">
+        <v>44170</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -2215,10 +2312,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,284 +2326,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="A1" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="11" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="11" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>353</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="57" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="58">
+        <v>279045668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A11" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5"/>
+      <c r="B14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="5"/>
+      <c r="B15" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="59" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="60">
+        <v>920145789</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="11"/>
+        <v>353</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25" s="11"/>
+      <c r="A25" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="57" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="5"/>
+      <c r="A26" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="58">
+        <v>279466554</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A18:B18"/>
+  <mergeCells count="14">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{04D58837-3C77-46B1-96CD-90ECA1153F10}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{ADA4F8FC-10BD-4955-A65C-10632446D68D}"/>
+    <hyperlink ref="C25" r:id="rId3" xr:uid="{F2B0B5B4-88AD-4563-8A02-48ADB437D805}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F (folha &amp;A)</oddHeader>
     <oddFooter>&amp;L&amp;D  &amp;T&amp;R&amp;P/&amp;N</oddFooter>
@@ -2520,254 +2596,110 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI103"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:C2"/>
       <selection pane="topRight" sqref="A1:C2"/>
       <selection pane="bottomLeft" sqref="A1:C2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="3" customWidth="1"/>
-    <col min="3" max="22" width="17.28515625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="21.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" style="3" customWidth="1"/>
-    <col min="29" max="31" width="10.140625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.7109375" style="3" customWidth="1"/>
-    <col min="35" max="35" width="27.140625" style="3" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="12" width="17.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="49" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="48" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
-        <v>370</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50" t="s">
-        <v>371</v>
-      </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50" t="s">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50" t="s">
-        <v>373</v>
-      </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD2" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="AE2" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF2" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="AG2" s="49" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="48"/>
-    </row>
-    <row r="3" spans="1:35" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="F2" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="W3" s="29" t="s">
+      <c r="G2" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH3" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI3" s="48"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -2775,77 +2707,45 @@
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M4" s="25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="54" t="s">
+        <v>398</v>
+      </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M5" s="25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="54" t="s">
+        <v>383</v>
+      </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2853,37 +2753,21 @@
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M6" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>386</v>
+      </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="54" t="s">
+        <v>382</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -2892,150 +2776,82 @@
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M7" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>390</v>
+      </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="16" t="s">
+        <v>388</v>
+      </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M10" s="22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -3049,32 +2865,10 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -3088,32 +2882,10 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -3127,32 +2899,10 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -3166,32 +2916,10 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -3205,32 +2933,10 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -3244,32 +2950,10 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -3283,32 +2967,10 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -3322,32 +2984,10 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -3361,32 +3001,10 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -3400,32 +3018,10 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -3439,32 +3035,10 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -3478,32 +3052,10 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -3517,32 +3069,10 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -3556,32 +3086,10 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -3595,32 +3103,10 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -3634,32 +3120,10 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -3673,32 +3137,10 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -3712,32 +3154,10 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -3751,32 +3171,10 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -3790,32 +3188,10 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="22"/>
-      <c r="AI30" s="22"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -3829,32 +3205,10 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="22"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -3868,32 +3222,10 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -3907,32 +3239,10 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="22"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -3946,32 +3256,10 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -3985,32 +3273,10 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -4024,32 +3290,10 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -4063,32 +3307,10 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -4102,32 +3324,10 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -4141,32 +3341,10 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="22"/>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="22"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -4180,32 +3358,10 @@
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -4219,32 +3375,10 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="22"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="22"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -4258,32 +3392,10 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -4297,32 +3409,10 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -4336,32 +3426,10 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -4375,32 +3443,10 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="22"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -4414,32 +3460,10 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="22"/>
-      <c r="AI46" s="22"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -4453,32 +3477,10 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -4492,32 +3494,10 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -4531,32 +3511,10 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -4570,32 +3528,10 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="22"/>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -4609,32 +3545,10 @@
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="22"/>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -4648,32 +3562,10 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="22"/>
-      <c r="AI52" s="22"/>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -4687,32 +3579,10 @@
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="22"/>
-      <c r="AH53" s="22"/>
-      <c r="AI53" s="22"/>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -4726,32 +3596,10 @@
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="22"/>
-      <c r="AC54" s="22"/>
-      <c r="AD54" s="22"/>
-      <c r="AE54" s="22"/>
-      <c r="AF54" s="22"/>
-      <c r="AG54" s="22"/>
-      <c r="AH54" s="22"/>
-      <c r="AI54" s="22"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -4765,32 +3613,10 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="22"/>
-      <c r="AH55" s="22"/>
-      <c r="AI55" s="22"/>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -4804,32 +3630,10 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -4843,32 +3647,10 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
-      <c r="AC57" s="22"/>
-      <c r="AD57" s="22"/>
-      <c r="AE57" s="22"/>
-      <c r="AF57" s="22"/>
-      <c r="AG57" s="22"/>
-      <c r="AH57" s="22"/>
-      <c r="AI57" s="22"/>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -4882,32 +3664,10 @@
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="22"/>
-      <c r="AI58" s="22"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -4921,32 +3681,10 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
-      <c r="AI59" s="22"/>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -4960,32 +3698,10 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
-      <c r="AE60" s="22"/>
-      <c r="AF60" s="22"/>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="22"/>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -4999,32 +3715,10 @@
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -5038,32 +3732,10 @@
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="22"/>
-      <c r="AB62" s="22"/>
-      <c r="AC62" s="22"/>
-      <c r="AD62" s="22"/>
-      <c r="AE62" s="22"/>
-      <c r="AF62" s="22"/>
-      <c r="AG62" s="22"/>
-      <c r="AH62" s="22"/>
-      <c r="AI62" s="22"/>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -5077,32 +3749,10 @@
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
-      <c r="AE63" s="22"/>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="22"/>
-      <c r="AI63" s="22"/>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -5116,32 +3766,10 @@
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="22"/>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -5155,32 +3783,10 @@
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="22"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="22"/>
-      <c r="AB65" s="22"/>
-      <c r="AC65" s="22"/>
-      <c r="AD65" s="22"/>
-      <c r="AE65" s="22"/>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="22"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="22"/>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -5194,32 +3800,10 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22"/>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="22"/>
-      <c r="AI66" s="22"/>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -5233,32 +3817,10 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
-      <c r="AE67" s="22"/>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="22"/>
-      <c r="AI67" s="22"/>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -5272,32 +3834,10 @@
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="22"/>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -5311,32 +3851,10 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="22"/>
-      <c r="AE69" s="22"/>
-      <c r="AF69" s="22"/>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="22"/>
-      <c r="AI69" s="22"/>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -5350,32 +3868,10 @@
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="22"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="22"/>
-      <c r="AA70" s="22"/>
-      <c r="AB70" s="22"/>
-      <c r="AC70" s="22"/>
-      <c r="AD70" s="22"/>
-      <c r="AE70" s="22"/>
-      <c r="AF70" s="22"/>
-      <c r="AG70" s="22"/>
-      <c r="AH70" s="22"/>
-      <c r="AI70" s="22"/>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -5389,32 +3885,10 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="22"/>
-      <c r="T71" s="22"/>
-      <c r="U71" s="22"/>
-      <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="X71" s="22"/>
-      <c r="Y71" s="22"/>
-      <c r="Z71" s="22"/>
-      <c r="AA71" s="22"/>
-      <c r="AB71" s="22"/>
-      <c r="AC71" s="22"/>
-      <c r="AD71" s="22"/>
-      <c r="AE71" s="22"/>
-      <c r="AF71" s="22"/>
-      <c r="AG71" s="22"/>
-      <c r="AH71" s="22"/>
-      <c r="AI71" s="22"/>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -5428,32 +3902,10 @@
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="22"/>
-      <c r="U72" s="22"/>
-      <c r="V72" s="22"/>
-      <c r="W72" s="22"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="22"/>
-      <c r="AA72" s="22"/>
-      <c r="AB72" s="22"/>
-      <c r="AC72" s="22"/>
-      <c r="AD72" s="22"/>
-      <c r="AE72" s="22"/>
-      <c r="AF72" s="22"/>
-      <c r="AG72" s="22"/>
-      <c r="AH72" s="22"/>
-      <c r="AI72" s="22"/>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -5467,32 +3919,10 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="22"/>
-      <c r="U73" s="22"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="22"/>
-      <c r="Z73" s="22"/>
-      <c r="AA73" s="22"/>
-      <c r="AB73" s="22"/>
-      <c r="AC73" s="22"/>
-      <c r="AD73" s="22"/>
-      <c r="AE73" s="22"/>
-      <c r="AF73" s="22"/>
-      <c r="AG73" s="22"/>
-      <c r="AH73" s="22"/>
-      <c r="AI73" s="22"/>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -5506,32 +3936,10 @@
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="22"/>
-      <c r="Z74" s="22"/>
-      <c r="AA74" s="22"/>
-      <c r="AB74" s="22"/>
-      <c r="AC74" s="22"/>
-      <c r="AD74" s="22"/>
-      <c r="AE74" s="22"/>
-      <c r="AF74" s="22"/>
-      <c r="AG74" s="22"/>
-      <c r="AH74" s="22"/>
-      <c r="AI74" s="22"/>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -5545,32 +3953,10 @@
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="22"/>
-      <c r="AB75" s="22"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="22"/>
-      <c r="AE75" s="22"/>
-      <c r="AF75" s="22"/>
-      <c r="AG75" s="22"/>
-      <c r="AH75" s="22"/>
-      <c r="AI75" s="22"/>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -5584,32 +3970,10 @@
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="22"/>
-      <c r="U76" s="22"/>
-      <c r="V76" s="22"/>
-      <c r="W76" s="22"/>
-      <c r="X76" s="22"/>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="22"/>
-      <c r="AB76" s="22"/>
-      <c r="AC76" s="22"/>
-      <c r="AD76" s="22"/>
-      <c r="AE76" s="22"/>
-      <c r="AF76" s="22"/>
-      <c r="AG76" s="22"/>
-      <c r="AH76" s="22"/>
-      <c r="AI76" s="22"/>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -5623,32 +3987,10 @@
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="22"/>
-      <c r="U77" s="22"/>
-      <c r="V77" s="22"/>
-      <c r="W77" s="22"/>
-      <c r="X77" s="22"/>
-      <c r="Y77" s="22"/>
-      <c r="Z77" s="22"/>
-      <c r="AA77" s="22"/>
-      <c r="AB77" s="22"/>
-      <c r="AC77" s="22"/>
-      <c r="AD77" s="22"/>
-      <c r="AE77" s="22"/>
-      <c r="AF77" s="22"/>
-      <c r="AG77" s="22"/>
-      <c r="AH77" s="22"/>
-      <c r="AI77" s="22"/>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -5662,32 +4004,10 @@
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="22"/>
-      <c r="U78" s="22"/>
-      <c r="V78" s="22"/>
-      <c r="W78" s="22"/>
-      <c r="X78" s="22"/>
-      <c r="Y78" s="22"/>
-      <c r="Z78" s="22"/>
-      <c r="AA78" s="22"/>
-      <c r="AB78" s="22"/>
-      <c r="AC78" s="22"/>
-      <c r="AD78" s="22"/>
-      <c r="AE78" s="22"/>
-      <c r="AF78" s="22"/>
-      <c r="AG78" s="22"/>
-      <c r="AH78" s="22"/>
-      <c r="AI78" s="22"/>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -5701,32 +4021,10 @@
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="22"/>
-      <c r="T79" s="22"/>
-      <c r="U79" s="22"/>
-      <c r="V79" s="22"/>
-      <c r="W79" s="22"/>
-      <c r="X79" s="22"/>
-      <c r="Y79" s="22"/>
-      <c r="Z79" s="22"/>
-      <c r="AA79" s="22"/>
-      <c r="AB79" s="22"/>
-      <c r="AC79" s="22"/>
-      <c r="AD79" s="22"/>
-      <c r="AE79" s="22"/>
-      <c r="AF79" s="22"/>
-      <c r="AG79" s="22"/>
-      <c r="AH79" s="22"/>
-      <c r="AI79" s="22"/>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -5740,32 +4038,10 @@
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="22"/>
-      <c r="U80" s="22"/>
-      <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="22"/>
-      <c r="Y80" s="22"/>
-      <c r="Z80" s="22"/>
-      <c r="AA80" s="22"/>
-      <c r="AB80" s="22"/>
-      <c r="AC80" s="22"/>
-      <c r="AD80" s="22"/>
-      <c r="AE80" s="22"/>
-      <c r="AF80" s="22"/>
-      <c r="AG80" s="22"/>
-      <c r="AH80" s="22"/>
-      <c r="AI80" s="22"/>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -5779,32 +4055,10 @@
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="22"/>
-      <c r="Z81" s="22"/>
-      <c r="AA81" s="22"/>
-      <c r="AB81" s="22"/>
-      <c r="AC81" s="22"/>
-      <c r="AD81" s="22"/>
-      <c r="AE81" s="22"/>
-      <c r="AF81" s="22"/>
-      <c r="AG81" s="22"/>
-      <c r="AH81" s="22"/>
-      <c r="AI81" s="22"/>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -5818,32 +4072,10 @@
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="22"/>
-      <c r="Z82" s="22"/>
-      <c r="AA82" s="22"/>
-      <c r="AB82" s="22"/>
-      <c r="AC82" s="22"/>
-      <c r="AD82" s="22"/>
-      <c r="AE82" s="22"/>
-      <c r="AF82" s="22"/>
-      <c r="AG82" s="22"/>
-      <c r="AH82" s="22"/>
-      <c r="AI82" s="22"/>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -5857,32 +4089,10 @@
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="22"/>
-      <c r="AB83" s="22"/>
-      <c r="AC83" s="22"/>
-      <c r="AD83" s="22"/>
-      <c r="AE83" s="22"/>
-      <c r="AF83" s="22"/>
-      <c r="AG83" s="22"/>
-      <c r="AH83" s="22"/>
-      <c r="AI83" s="22"/>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -5896,32 +4106,10 @@
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22"/>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="22"/>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="22"/>
-      <c r="AI84" s="22"/>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -5935,32 +4123,10 @@
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22"/>
-      <c r="T85" s="22"/>
-      <c r="U85" s="22"/>
-      <c r="V85" s="22"/>
-      <c r="W85" s="22"/>
-      <c r="X85" s="22"/>
-      <c r="Y85" s="22"/>
-      <c r="Z85" s="22"/>
-      <c r="AA85" s="22"/>
-      <c r="AB85" s="22"/>
-      <c r="AC85" s="22"/>
-      <c r="AD85" s="22"/>
-      <c r="AE85" s="22"/>
-      <c r="AF85" s="22"/>
-      <c r="AG85" s="22"/>
-      <c r="AH85" s="22"/>
-      <c r="AI85" s="22"/>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -5974,32 +4140,10 @@
       <c r="K86" s="22"/>
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="22"/>
-      <c r="T86" s="22"/>
-      <c r="U86" s="22"/>
-      <c r="V86" s="22"/>
-      <c r="W86" s="22"/>
-      <c r="X86" s="22"/>
-      <c r="Y86" s="22"/>
-      <c r="Z86" s="22"/>
-      <c r="AA86" s="22"/>
-      <c r="AB86" s="22"/>
-      <c r="AC86" s="22"/>
-      <c r="AD86" s="22"/>
-      <c r="AE86" s="22"/>
-      <c r="AF86" s="22"/>
-      <c r="AG86" s="22"/>
-      <c r="AH86" s="22"/>
-      <c r="AI86" s="22"/>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -6013,32 +4157,10 @@
       <c r="K87" s="22"/>
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
-      <c r="Z87" s="22"/>
-      <c r="AA87" s="22"/>
-      <c r="AB87" s="22"/>
-      <c r="AC87" s="22"/>
-      <c r="AD87" s="22"/>
-      <c r="AE87" s="22"/>
-      <c r="AF87" s="22"/>
-      <c r="AG87" s="22"/>
-      <c r="AH87" s="22"/>
-      <c r="AI87" s="22"/>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -6052,32 +4174,10 @@
       <c r="K88" s="22"/>
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="22"/>
-      <c r="V88" s="22"/>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
-      <c r="Z88" s="22"/>
-      <c r="AA88" s="22"/>
-      <c r="AB88" s="22"/>
-      <c r="AC88" s="22"/>
-      <c r="AD88" s="22"/>
-      <c r="AE88" s="22"/>
-      <c r="AF88" s="22"/>
-      <c r="AG88" s="22"/>
-      <c r="AH88" s="22"/>
-      <c r="AI88" s="22"/>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -6091,32 +4191,10 @@
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="22"/>
-      <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-      <c r="X89" s="22"/>
-      <c r="Y89" s="22"/>
-      <c r="Z89" s="22"/>
-      <c r="AA89" s="22"/>
-      <c r="AB89" s="22"/>
-      <c r="AC89" s="22"/>
-      <c r="AD89" s="22"/>
-      <c r="AE89" s="22"/>
-      <c r="AF89" s="22"/>
-      <c r="AG89" s="22"/>
-      <c r="AH89" s="22"/>
-      <c r="AI89" s="22"/>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -6130,32 +4208,10 @@
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="22"/>
-      <c r="V90" s="22"/>
-      <c r="W90" s="22"/>
-      <c r="X90" s="22"/>
-      <c r="Y90" s="22"/>
-      <c r="Z90" s="22"/>
-      <c r="AA90" s="22"/>
-      <c r="AB90" s="22"/>
-      <c r="AC90" s="22"/>
-      <c r="AD90" s="22"/>
-      <c r="AE90" s="22"/>
-      <c r="AF90" s="22"/>
-      <c r="AG90" s="22"/>
-      <c r="AH90" s="22"/>
-      <c r="AI90" s="22"/>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -6169,32 +4225,10 @@
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
-      <c r="AA91" s="22"/>
-      <c r="AB91" s="22"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="22"/>
-      <c r="AE91" s="22"/>
-      <c r="AF91" s="22"/>
-      <c r="AG91" s="22"/>
-      <c r="AH91" s="22"/>
-      <c r="AI91" s="22"/>
-    </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -6208,32 +4242,10 @@
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="22"/>
-      <c r="V92" s="22"/>
-      <c r="W92" s="22"/>
-      <c r="X92" s="22"/>
-      <c r="Y92" s="22"/>
-      <c r="Z92" s="22"/>
-      <c r="AA92" s="22"/>
-      <c r="AB92" s="22"/>
-      <c r="AC92" s="22"/>
-      <c r="AD92" s="22"/>
-      <c r="AE92" s="22"/>
-      <c r="AF92" s="22"/>
-      <c r="AG92" s="22"/>
-      <c r="AH92" s="22"/>
-      <c r="AI92" s="22"/>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -6247,32 +4259,10 @@
       <c r="K93" s="22"/>
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="22"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="22"/>
-      <c r="X93" s="22"/>
-      <c r="Y93" s="22"/>
-      <c r="Z93" s="22"/>
-      <c r="AA93" s="22"/>
-      <c r="AB93" s="22"/>
-      <c r="AC93" s="22"/>
-      <c r="AD93" s="22"/>
-      <c r="AE93" s="22"/>
-      <c r="AF93" s="22"/>
-      <c r="AG93" s="22"/>
-      <c r="AH93" s="22"/>
-      <c r="AI93" s="22"/>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -6286,32 +4276,10 @@
       <c r="K94" s="22"/>
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="22"/>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="22"/>
-      <c r="R94" s="22"/>
-      <c r="S94" s="22"/>
-      <c r="T94" s="22"/>
-      <c r="U94" s="22"/>
-      <c r="V94" s="22"/>
-      <c r="W94" s="22"/>
-      <c r="X94" s="22"/>
-      <c r="Y94" s="22"/>
-      <c r="Z94" s="22"/>
-      <c r="AA94" s="22"/>
-      <c r="AB94" s="22"/>
-      <c r="AC94" s="22"/>
-      <c r="AD94" s="22"/>
-      <c r="AE94" s="22"/>
-      <c r="AF94" s="22"/>
-      <c r="AG94" s="22"/>
-      <c r="AH94" s="22"/>
-      <c r="AI94" s="22"/>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -6325,32 +4293,10 @@
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="22"/>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="22"/>
-      <c r="S95" s="22"/>
-      <c r="T95" s="22"/>
-      <c r="U95" s="22"/>
-      <c r="V95" s="22"/>
-      <c r="W95" s="22"/>
-      <c r="X95" s="22"/>
-      <c r="Y95" s="22"/>
-      <c r="Z95" s="22"/>
-      <c r="AA95" s="22"/>
-      <c r="AB95" s="22"/>
-      <c r="AC95" s="22"/>
-      <c r="AD95" s="22"/>
-      <c r="AE95" s="22"/>
-      <c r="AF95" s="22"/>
-      <c r="AG95" s="22"/>
-      <c r="AH95" s="22"/>
-      <c r="AI95" s="22"/>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -6364,32 +4310,10 @@
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
-      <c r="S96" s="22"/>
-      <c r="T96" s="22"/>
-      <c r="U96" s="22"/>
-      <c r="V96" s="22"/>
-      <c r="W96" s="22"/>
-      <c r="X96" s="22"/>
-      <c r="Y96" s="22"/>
-      <c r="Z96" s="22"/>
-      <c r="AA96" s="22"/>
-      <c r="AB96" s="22"/>
-      <c r="AC96" s="22"/>
-      <c r="AD96" s="22"/>
-      <c r="AE96" s="22"/>
-      <c r="AF96" s="22"/>
-      <c r="AG96" s="22"/>
-      <c r="AH96" s="22"/>
-      <c r="AI96" s="22"/>
-    </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -6403,32 +4327,10 @@
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
-      <c r="T97" s="22"/>
-      <c r="U97" s="22"/>
-      <c r="V97" s="22"/>
-      <c r="W97" s="22"/>
-      <c r="X97" s="22"/>
-      <c r="Y97" s="22"/>
-      <c r="Z97" s="22"/>
-      <c r="AA97" s="22"/>
-      <c r="AB97" s="22"/>
-      <c r="AC97" s="22"/>
-      <c r="AD97" s="22"/>
-      <c r="AE97" s="22"/>
-      <c r="AF97" s="22"/>
-      <c r="AG97" s="22"/>
-      <c r="AH97" s="22"/>
-      <c r="AI97" s="22"/>
-    </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -6442,32 +4344,10 @@
       <c r="K98" s="22"/>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="22"/>
-      <c r="S98" s="22"/>
-      <c r="T98" s="22"/>
-      <c r="U98" s="22"/>
-      <c r="V98" s="22"/>
-      <c r="W98" s="22"/>
-      <c r="X98" s="22"/>
-      <c r="Y98" s="22"/>
-      <c r="Z98" s="22"/>
-      <c r="AA98" s="22"/>
-      <c r="AB98" s="22"/>
-      <c r="AC98" s="22"/>
-      <c r="AD98" s="22"/>
-      <c r="AE98" s="22"/>
-      <c r="AF98" s="22"/>
-      <c r="AG98" s="22"/>
-      <c r="AH98" s="22"/>
-      <c r="AI98" s="22"/>
-    </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -6481,32 +4361,10 @@
       <c r="K99" s="22"/>
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
-      <c r="T99" s="22"/>
-      <c r="U99" s="22"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-      <c r="X99" s="22"/>
-      <c r="Y99" s="22"/>
-      <c r="Z99" s="22"/>
-      <c r="AA99" s="22"/>
-      <c r="AB99" s="22"/>
-      <c r="AC99" s="22"/>
-      <c r="AD99" s="22"/>
-      <c r="AE99" s="22"/>
-      <c r="AF99" s="22"/>
-      <c r="AG99" s="22"/>
-      <c r="AH99" s="22"/>
-      <c r="AI99" s="22"/>
-    </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
@@ -6520,32 +4378,10 @@
       <c r="K100" s="22"/>
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22"/>
-      <c r="W100" s="22"/>
-      <c r="X100" s="22"/>
-      <c r="Y100" s="22"/>
-      <c r="Z100" s="22"/>
-      <c r="AA100" s="22"/>
-      <c r="AB100" s="22"/>
-      <c r="AC100" s="22"/>
-      <c r="AD100" s="22"/>
-      <c r="AE100" s="22"/>
-      <c r="AF100" s="22"/>
-      <c r="AG100" s="22"/>
-      <c r="AH100" s="22"/>
-      <c r="AI100" s="22"/>
-    </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
@@ -6559,32 +4395,10 @@
       <c r="K101" s="22"/>
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="22"/>
-      <c r="S101" s="22"/>
-      <c r="T101" s="22"/>
-      <c r="U101" s="22"/>
-      <c r="V101" s="22"/>
-      <c r="W101" s="22"/>
-      <c r="X101" s="22"/>
-      <c r="Y101" s="22"/>
-      <c r="Z101" s="22"/>
-      <c r="AA101" s="22"/>
-      <c r="AB101" s="22"/>
-      <c r="AC101" s="22"/>
-      <c r="AD101" s="22"/>
-      <c r="AE101" s="22"/>
-      <c r="AF101" s="22"/>
-      <c r="AG101" s="22"/>
-      <c r="AH101" s="22"/>
-      <c r="AI101" s="22"/>
-    </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
@@ -6598,32 +4412,10 @@
       <c r="K102" s="22"/>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="22"/>
-      <c r="S102" s="22"/>
-      <c r="T102" s="22"/>
-      <c r="U102" s="22"/>
-      <c r="V102" s="22"/>
-      <c r="W102" s="22"/>
-      <c r="X102" s="22"/>
-      <c r="Y102" s="22"/>
-      <c r="Z102" s="22"/>
-      <c r="AA102" s="22"/>
-      <c r="AB102" s="22"/>
-      <c r="AC102" s="22"/>
-      <c r="AD102" s="22"/>
-      <c r="AE102" s="22"/>
-      <c r="AF102" s="22"/>
-      <c r="AG102" s="22"/>
-      <c r="AH102" s="22"/>
-      <c r="AI102" s="22"/>
-    </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B103" s="22"/>
       <c r="C103" s="22"/>
@@ -6637,59 +4429,58 @@
       <c r="K103" s="22"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="22"/>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="22"/>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="22"/>
-      <c r="AA103" s="22"/>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="22"/>
-      <c r="AE103" s="22"/>
-      <c r="AF103" s="22"/>
-      <c r="AG103" s="22"/>
-      <c r="AH103" s="22"/>
-      <c r="AI103" s="22"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="22"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C1:AA1"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="C1:L1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="sim ou não" error="apenas estes dois valores são admitidos" sqref="W4:W103 Z4:Z103 AC4:AG103" xr:uid="{00000000-0002-0000-0500-000000000000}">
-      <formula1>"sim, não"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" fitToWidth="4" fitToHeight="4" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6729,25 +4520,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>379</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>380</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>382</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>365</v>
+      <c r="A1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>352</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -6760,20 +4551,20 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="27" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+        <v>359</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -6786,26 +4577,26 @@
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="21" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -6819,24 +4610,24 @@
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="21" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -6850,7 +4641,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -6862,7 +4653,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -6874,7 +4665,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -6886,7 +4677,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -6898,7 +4689,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -6910,7 +4701,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -6922,7 +4713,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -6934,7 +4725,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -6946,7 +4737,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6958,7 +4749,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -6970,7 +4761,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -6982,7 +4773,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -6994,7 +4785,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -7006,7 +4797,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -7018,7 +4809,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -7030,7 +4821,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -7042,7 +4833,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -7054,7 +4845,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -7066,7 +4857,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -7078,7 +4869,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -7090,7 +4881,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -7102,7 +4893,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -7114,7 +4905,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -7126,7 +4917,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -7138,7 +4929,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -7150,7 +4941,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -7162,7 +4953,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -7174,7 +4965,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -7186,7 +4977,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -7198,7 +4989,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -7210,7 +5001,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -7222,7 +5013,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -7234,7 +5025,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
@@ -7246,7 +5037,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -7258,7 +5049,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -7270,7 +5061,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
@@ -7282,7 +5073,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -7294,7 +5085,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -7306,7 +5097,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -7318,7 +5109,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -7330,7 +5121,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -7342,7 +5133,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
@@ -7354,7 +5145,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
@@ -7366,7 +5157,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -7378,7 +5169,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
@@ -7390,7 +5181,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -7402,7 +5193,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -7414,7 +5205,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
@@ -7426,7 +5217,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
@@ -7438,7 +5229,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
@@ -7450,7 +5241,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -7462,7 +5253,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
@@ -7474,7 +5265,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
@@ -7486,7 +5277,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
@@ -7498,7 +5289,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
@@ -7510,7 +5301,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -7522,7 +5313,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
@@ -7534,7 +5325,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
@@ -7546,7 +5337,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -7558,7 +5349,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -7570,7 +5361,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
@@ -7582,7 +5373,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -7594,7 +5385,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
@@ -7606,7 +5397,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
@@ -7618,7 +5409,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
@@ -7630,7 +5421,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -7642,7 +5433,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="26"/>
@@ -7654,7 +5445,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
@@ -7666,7 +5457,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -7678,7 +5469,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
@@ -7690,7 +5481,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
@@ -7702,7 +5493,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
@@ -7714,7 +5505,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
@@ -7726,7 +5517,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -7738,7 +5529,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -7750,7 +5541,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
@@ -7762,7 +5553,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -7774,7 +5565,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
@@ -7786,7 +5577,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
@@ -7798,7 +5589,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -7810,7 +5601,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
@@ -7822,7 +5613,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -7834,7 +5625,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
@@ -7846,7 +5637,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
@@ -7858,7 +5649,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
@@ -7870,7 +5661,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
@@ -7882,7 +5673,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
@@ -7894,7 +5685,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
@@ -7906,7 +5697,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
@@ -7918,7 +5709,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
@@ -7930,7 +5721,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="26"/>
@@ -7942,7 +5733,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
@@ -7954,7 +5745,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -7966,7 +5757,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
@@ -7978,7 +5769,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
@@ -7990,7 +5781,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -8002,7 +5793,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
@@ -8014,7 +5805,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
@@ -8026,7 +5817,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="26"/>
@@ -8038,7 +5829,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="26"/>
@@ -8108,103 +5899,103 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -8213,7 +6004,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -8222,7 +6013,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -8231,7 +6022,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -8240,7 +6031,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -8249,7 +6040,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -8258,7 +6049,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -8267,7 +6058,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -8276,7 +6067,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -8285,7 +6076,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -8294,7 +6085,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -8303,7 +6094,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -8312,7 +6103,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -8321,7 +6112,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -8330,7 +6121,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -8339,7 +6130,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -8348,7 +6139,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -8357,7 +6148,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -8366,7 +6157,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -8375,7 +6166,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -8384,7 +6175,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -8393,7 +6184,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -8402,7 +6193,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -8411,7 +6202,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -8420,7 +6211,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -8429,7 +6220,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -8438,7 +6229,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -8447,7 +6238,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -8456,7 +6247,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -8465,7 +6256,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -8474,7 +6265,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -8483,7 +6274,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -8492,7 +6283,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -8501,7 +6292,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -8510,7 +6301,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -8519,7 +6310,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -8528,7 +6319,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -8537,7 +6328,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -8546,7 +6337,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -8555,7 +6346,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -8564,7 +6355,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -8573,7 +6364,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -8582,7 +6373,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -8591,7 +6382,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -8600,7 +6391,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -8609,7 +6400,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -8618,7 +6409,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -8627,7 +6418,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -8636,7 +6427,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -8645,7 +6436,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -8654,7 +6445,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -8663,7 +6454,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -8672,7 +6463,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -8681,7 +6472,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -8690,7 +6481,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -8699,7 +6490,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -8708,7 +6499,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -8717,7 +6508,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -8726,7 +6517,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -8735,7 +6526,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -8744,7 +6535,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -8753,7 +6544,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -8762,7 +6553,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -8771,7 +6562,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -8780,7 +6571,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -8789,7 +6580,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -8798,7 +6589,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -8807,7 +6598,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -8816,7 +6607,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -8825,7 +6616,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -8834,7 +6625,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -8843,7 +6634,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -8852,7 +6643,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -8861,7 +6652,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -8870,7 +6661,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -8879,7 +6670,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -8888,7 +6679,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -8897,7 +6688,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -8906,7 +6697,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -8915,7 +6706,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -8924,7 +6715,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -8933,7 +6724,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -8942,7 +6733,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -8951,7 +6742,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -8960,7 +6751,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -8969,7 +6760,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -8978,7 +6769,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -8987,7 +6778,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -8996,7 +6787,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -9005,7 +6796,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -9014,7 +6805,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -9023,7 +6814,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -9032,7 +6823,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -9041,7 +6832,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
@@ -9050,7 +6841,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
@@ -9059,7 +6850,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
@@ -9068,7 +6859,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B103" s="22"/>
       <c r="C103" s="22"/>
@@ -9077,7 +6868,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B104" s="22"/>
       <c r="C104" s="22"/>
@@ -9086,7 +6877,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B105" s="22"/>
       <c r="C105" s="22"/>
@@ -9095,7 +6886,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>

--- a/template RGPD registos.xlsx
+++ b/template RGPD registos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="123" documentId="114_{4FC6CB05-B107-4692-B77D-C0EBC8DE0B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0EC878DE-EF40-4BD3-B227-AC630B6F9764}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956C25C9-4560-4D05-8050-855A188EFC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="histórico de alterações" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="418">
   <si>
     <t>Nome</t>
   </si>
@@ -1219,15 +1219,6 @@
     <t xml:space="preserve">Consentimento; Contrato; </t>
   </si>
   <si>
-    <t xml:space="preserve">Consentimento; Interesse do Titular </t>
-  </si>
-  <si>
-    <t>Consentimento; Interesse do Titular; Interesse Público</t>
-  </si>
-  <si>
-    <t>Consentimento; Interesse do Responsável; Interesse do Titular</t>
-  </si>
-  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -1240,9 +1231,6 @@
     <t>Localidade para correspondência e intendimento da localização do cliente</t>
   </si>
   <si>
-    <t>Empresa de Transporte</t>
-  </si>
-  <si>
     <t>223 483 707</t>
   </si>
   <si>
@@ -1292,6 +1280,18 @@
   </si>
   <si>
     <t>opt@hotmail.com</t>
+  </si>
+  <si>
+    <t>Empresa de Transporte LDA</t>
+  </si>
+  <si>
+    <t>Consentimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlar a maioridade e adaptar escalão </t>
+  </si>
+  <si>
+    <t>Idade</t>
   </si>
 </sst>
 </file>
@@ -1563,10 +1563,40 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1577,21 +1607,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1631,21 +1646,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2032,17 +2032,17 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="A3" s="33">
         <v>44170</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,8 +2314,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,28 +2326,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="11" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2358,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,7 +2367,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,41 +2385,41 @@
         <v>353</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="57" t="s">
-        <v>405</v>
+      <c r="B8" s="41"/>
+      <c r="C8" s="34" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="58">
+      <c r="B9" s="41"/>
+      <c r="C9" s="35">
         <v>279045668</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2457,50 +2457,50 @@
         <v>353</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="59" t="s">
-        <v>410</v>
+      <c r="B16" s="44"/>
+      <c r="C16" s="36" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="60">
+      <c r="B17" s="44"/>
+      <c r="C17" s="37">
         <v>920145789</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2538,34 +2538,29 @@
         <v>353</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="57" t="s">
-        <v>417</v>
+      <c r="B25" s="41"/>
+      <c r="C25" s="34" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="58">
+      <c r="B26" s="41"/>
+      <c r="C26" s="35">
         <v>279466554</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:C10"/>
@@ -2575,6 +2570,11 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{04D58837-3C77-46B1-96CD-90ECA1153F10}"/>
@@ -2598,12 +2598,12 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:C2"/>
       <selection pane="topRight" sqref="A1:C2"/>
       <selection pane="bottomLeft" sqref="A1:C2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,77 +2616,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="42" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="53" t="s">
         <v>373</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="53" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="53" t="s">
         <v>375</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="53" t="s">
         <v>379</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="53" t="s">
         <v>380</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="M2" s="42"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="42"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -2695,11 +2695,11 @@
       <c r="B4" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -2716,16 +2716,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+        <v>396</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="54" t="s">
-        <v>398</v>
+      <c r="I5" s="31" t="s">
+        <v>395</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -2741,9 +2741,9 @@
       <c r="B6" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31" t="s">
         <v>383</v>
       </c>
       <c r="F6" s="25"/>
@@ -2754,7 +2754,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
         <v>386</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="31" t="s">
         <v>382</v>
       </c>
       <c r="E7" s="25"/>
@@ -2777,7 +2777,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>386</v>
       </c>
       <c r="C8" s="25"/>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="31" t="s">
         <v>384</v>
       </c>
       <c r="E8" s="25"/>
@@ -2800,7 +2800,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -2813,7 +2813,7 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="31" t="s">
         <v>387</v>
       </c>
       <c r="G9" s="25"/>
@@ -2823,7 +2823,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -2846,15 +2846,19 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>417</v>
+      </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -2864,7 +2868,9 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="M11" s="22" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -4520,24 +4526,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="49" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="56" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="53" t="s">
         <v>352</v>
       </c>
       <c r="I1" s="4"/>
@@ -4551,7 +4557,7 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="27" t="s">
         <v>355</v>
       </c>
@@ -4561,10 +4567,10 @@
       <c r="D2" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>

--- a/template RGPD registos.xlsx
+++ b/template RGPD registos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956C25C9-4560-4D05-8050-855A188EFC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{956C25C9-4560-4D05-8050-855A188EFC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{491BA31B-9D70-4ABB-AB91-E0FA5BA96973}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1485" yWindow="1470" windowWidth="15300" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="histórico de alterações" sheetId="9" r:id="rId1"/>
@@ -1578,25 +1578,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1607,6 +1592,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2314,8 +2314,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,26 +2326,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="11" t="s">
         <v>397</v>
       </c>
@@ -2389,35 +2389,35 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="34" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="35">
         <v>279045668</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="5" t="s">
         <v>402</v>
       </c>
@@ -2461,44 +2461,44 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="36" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="37">
         <v>920145789</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="11" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="11" t="s">
         <v>408</v>
       </c>
@@ -2542,25 +2542,30 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="41"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="34" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="35">
         <v>279466554</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:C10"/>
@@ -2570,11 +2575,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{04D58837-3C77-46B1-96CD-90ECA1153F10}"/>
@@ -2598,8 +2598,8 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:C2"/>
       <selection pane="topRight" sqref="A1:C2"/>
       <selection pane="bottomLeft" sqref="A1:C2"/>
